--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265466.0724251075</v>
+        <v>279192.4305625257</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10344863.30166852</v>
+        <v>10352612.8842933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18475923.38551641</v>
+        <v>18483672.96814117</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5263337.085234082</v>
+        <v>5255483.00395527</v>
       </c>
     </row>
     <row r="11">
@@ -9246,7 +9248,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
         <v>51.84373129681028</v>
@@ -9328,7 +9330,7 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -9492,10 +9494,10 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>94.49434172313325</v>
@@ -9562,7 +9564,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
@@ -9641,13 +9643,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -9954,22 +9956,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10036,7 +10038,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -10118,16 +10120,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10200,13 +10202,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10601,7 +10603,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -10832,7 +10834,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
         <v>117.8828208804077</v>
@@ -10911,7 +10913,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>57.81213424001893</v>
@@ -11063,7 +11065,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>65.92768427608706</v>
@@ -11236,7 +11238,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
         <v>94.49434172313325</v>
@@ -23838,7 +23840,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23920,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -23990,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24069,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24084,10 +24086,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -24154,7 +24156,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -24233,13 +24235,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24464,10 +24466,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
@@ -24479,7 +24481,7 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24546,22 +24548,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24628,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24710,16 +24712,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24792,13 +24794,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -25193,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25424,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -25503,7 +25505,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -25655,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
         <v>113.4004983079896</v>
@@ -25667,7 +25669,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25728,13 +25730,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
         <v>51.84373129681028</v>
@@ -25743,7 +25745,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25886,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25977,13 +25979,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>327426.5192383233</v>
+        <v>328098.191830004</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>336858.0333416928</v>
+        <v>299618.089978458</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>318656.418858677</v>
+        <v>321454.9324395253</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>251253.9835283186</v>
+        <v>240840.9903814894</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>267569.1084677848</v>
+        <v>291203.1257415551</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>311272.9867704617</v>
+        <v>330142.5307984101</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>321454.9324395253</v>
+        <v>316643.8336014683</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>253994.4558065518</v>
+        <v>255490.7087595899</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187309.0824603325</v>
+        <v>186878.409543819</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>512047.7116981492</v>
+      </c>
+      <c r="C2" t="n">
         <v>512047.711698149</v>
-      </c>
-      <c r="C2" t="n">
-        <v>512047.7116981491</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26326,34 +26328,34 @@
         <v>142900.6851873295</v>
       </c>
       <c r="G2" t="n">
-        <v>139532.2872932689</v>
+        <v>139772.1703617264</v>
       </c>
       <c r="H2" t="n">
-        <v>142900.6851873295</v>
+        <v>129600.7054147457</v>
       </c>
       <c r="I2" t="n">
-        <v>136400.1085862525</v>
+        <v>137399.5777222697</v>
       </c>
       <c r="J2" t="n">
-        <v>112327.8102539817</v>
+        <v>108608.8841301141</v>
       </c>
       <c r="K2" t="n">
-        <v>118154.6405895053</v>
+        <v>126595.3610444233</v>
       </c>
       <c r="L2" t="n">
         <v>142900.6851873295</v>
       </c>
       <c r="M2" t="n">
-        <v>133763.168554747</v>
+        <v>140502.2914218714</v>
       </c>
       <c r="N2" t="n">
-        <v>137399.5777222697</v>
+        <v>135681.3281372494</v>
       </c>
       <c r="O2" t="n">
-        <v>113306.5503533506</v>
+        <v>113840.9264080071</v>
       </c>
       <c r="P2" t="n">
-        <v>89490.34558684376</v>
+        <v>89336.53383094609</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>69802.18131907037</v>
@@ -26430,34 +26432,34 @@
         <v>79636.80000449967</v>
       </c>
       <c r="G4" t="n">
-        <v>76268.40211043914</v>
+        <v>76508.28517889656</v>
       </c>
       <c r="H4" t="n">
-        <v>79636.80000449967</v>
+        <v>66336.82023191586</v>
       </c>
       <c r="I4" t="n">
-        <v>73136.22340342263</v>
+        <v>74135.6925394399</v>
       </c>
       <c r="J4" t="n">
-        <v>49063.92507115182</v>
+        <v>45344.99894728426</v>
       </c>
       <c r="K4" t="n">
-        <v>54890.75540667547</v>
+        <v>63331.47586159341</v>
       </c>
       <c r="L4" t="n">
         <v>79636.80000449967</v>
       </c>
       <c r="M4" t="n">
-        <v>70499.28337191716</v>
+        <v>77238.40623904156</v>
       </c>
       <c r="N4" t="n">
-        <v>74135.69253943989</v>
+        <v>72417.44295441953</v>
       </c>
       <c r="O4" t="n">
-        <v>50042.66517052076</v>
+        <v>50577.04122517727</v>
       </c>
       <c r="P4" t="n">
-        <v>26226.46040401394</v>
+        <v>26072.64864811626</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10804.15176641778</v>
+        <v>10804.15176641793</v>
       </c>
       <c r="C6" t="n">
-        <v>10804.15176641784</v>
+        <v>10804.15176641776</v>
       </c>
       <c r="D6" t="n">
-        <v>10804.15176641778</v>
+        <v>10804.15176641776</v>
       </c>
       <c r="E6" t="n">
-        <v>-73447.72692217848</v>
+        <v>-73447.72692217854</v>
       </c>
       <c r="F6" t="n">
-        <v>59652.27307782149</v>
+        <v>59652.27307782148</v>
       </c>
       <c r="G6" t="n">
-        <v>59652.27307782149</v>
+        <v>59652.27307782148</v>
       </c>
       <c r="H6" t="n">
-        <v>59652.27307782149</v>
+        <v>59652.27307782156</v>
       </c>
       <c r="I6" t="n">
-        <v>59652.27307782152</v>
+        <v>59652.2730778215</v>
       </c>
       <c r="J6" t="n">
-        <v>59652.27307782152</v>
+        <v>59652.27307782151</v>
       </c>
       <c r="K6" t="n">
         <v>59652.27307782153</v>
       </c>
       <c r="L6" t="n">
-        <v>59652.27307782149</v>
+        <v>59652.27307782148</v>
       </c>
       <c r="M6" t="n">
-        <v>59652.27307782153</v>
+        <v>59652.27307782148</v>
       </c>
       <c r="N6" t="n">
-        <v>59652.27307782152</v>
+        <v>59652.27307782151</v>
       </c>
       <c r="O6" t="n">
-        <v>59652.27307782154</v>
+        <v>59652.27307782151</v>
       </c>
       <c r="P6" t="n">
-        <v>59652.2730778215</v>
+        <v>59652.27307782151</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279192.4305625257</v>
+        <v>195407.0288009005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10352612.8842933</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18483672.96814117</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5255483.00395527</v>
+        <v>5582999.386126758</v>
       </c>
     </row>
     <row r="11">
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9330,7 +9330,7 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -9494,10 +9494,10 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
         <v>94.49434172313325</v>
@@ -9564,7 +9564,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
@@ -9649,7 +9649,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -9880,16 +9880,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -9956,22 +9956,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10038,7 +10038,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -10117,13 +10117,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
         <v>117.8828208804077</v>
@@ -10202,13 +10202,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10673,10 +10673,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -10913,7 +10913,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
         <v>57.81213424001893</v>
@@ -11065,16 +11065,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
         <v>135.4597561231036</v>
@@ -11144,16 +11144,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
         <v>65.92768427608706</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11384,13 +11384,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
         <v>65.92768427608706</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24071,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24086,10 +24086,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -24156,7 +24156,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24472,16 +24472,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24548,22 +24548,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24709,13 +24709,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -24794,13 +24794,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -25265,10 +25265,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25505,7 +25505,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -25657,16 +25657,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -25736,16 +25736,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25976,13 +25976,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>309321.1010224906</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328098.191830004</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>299618.089978458</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>321454.9324395253</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>240840.9903814894</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>291203.1257415551</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>330142.5307984101</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>316643.8336014683</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>255490.7087595899</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>186878.409543819</v>
+        <v>336858.0333416928</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981492</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
-        <v>133066.0665019002</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="F2" t="n">
         <v>142900.6851873295</v>
       </c>
       <c r="G2" t="n">
-        <v>139772.1703617264</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="H2" t="n">
-        <v>129600.7054147457</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="I2" t="n">
-        <v>137399.5777222697</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="J2" t="n">
-        <v>108608.8841301141</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="K2" t="n">
-        <v>126595.3610444233</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="L2" t="n">
         <v>142900.6851873295</v>
       </c>
       <c r="M2" t="n">
-        <v>140502.2914218714</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="N2" t="n">
-        <v>135681.3281372494</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="O2" t="n">
-        <v>113840.9264080071</v>
+        <v>142900.6851873295</v>
       </c>
       <c r="P2" t="n">
-        <v>89336.53383094609</v>
+        <v>142900.6851873295</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>69802.18131907037</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="F4" t="n">
         <v>79636.80000449967</v>
       </c>
       <c r="G4" t="n">
-        <v>76508.28517889656</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="H4" t="n">
-        <v>66336.82023191586</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="I4" t="n">
-        <v>74135.6925394399</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="J4" t="n">
-        <v>45344.99894728426</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="K4" t="n">
-        <v>63331.47586159341</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="L4" t="n">
         <v>79636.80000449967</v>
       </c>
       <c r="M4" t="n">
-        <v>77238.40623904156</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="N4" t="n">
-        <v>72417.44295441953</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="O4" t="n">
-        <v>50577.04122517727</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="P4" t="n">
-        <v>26072.64864811626</v>
+        <v>79636.80000449967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10804.15176641793</v>
+        <v>10760.01598773675</v>
       </c>
       <c r="C6" t="n">
-        <v>10804.15176641776</v>
+        <v>10760.01598773658</v>
       </c>
       <c r="D6" t="n">
-        <v>10804.15176641776</v>
+        <v>10760.01598773669</v>
       </c>
       <c r="E6" t="n">
-        <v>-73447.72692217854</v>
+        <v>-88257.74376129247</v>
       </c>
       <c r="F6" t="n">
-        <v>59652.27307782148</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="G6" t="n">
-        <v>59652.27307782148</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="H6" t="n">
-        <v>59652.27307782156</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="I6" t="n">
-        <v>59652.2730778215</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="J6" t="n">
-        <v>59652.27307782151</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="K6" t="n">
-        <v>59652.27307782153</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="L6" t="n">
-        <v>59652.27307782148</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="M6" t="n">
-        <v>59652.27307782148</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="N6" t="n">
-        <v>59652.27307782151</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="O6" t="n">
-        <v>59652.27307782151</v>
+        <v>44842.25623870757</v>
       </c>
       <c r="P6" t="n">
-        <v>59652.27307782151</v>
+        <v>44842.25623870757</v>
       </c>
     </row>
   </sheetData>
